--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A4A1D0-3B49-4DAD-8754-613469249A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2286C71C-D62B-45E7-A8CB-AFECE46BC452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -668,6 +668,74 @@
     <rPh sb="1" eb="2">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴選択画面</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>履歴の選択</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑭</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑭</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑮</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑮</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -964,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,137 +1114,17 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1198,6 +1146,114 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
-  <dimension ref="A1:AW42"/>
+  <dimension ref="A1:AU43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:T3"/>
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1527,187 +1583,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="58" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
       <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="58" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="60">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="55">
         <v>45127</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
       <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="58" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="U3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
     </row>
     <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="22" t="s">
         <v>36</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="35"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="40"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="74" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="34" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="71"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="43"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="71"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="25"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="38"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="43"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1870,16 +1926,16 @@
         <v>41</v>
       </c>
       <c r="Q13" s="8"/>
-      <c r="S13" s="76" t="s">
+      <c r="S13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="T13" s="27" t="s">
+      <c r="T13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="69"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1897,11 +1953,11 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="13"/>
       <c r="S14" s="24"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="48"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="72"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1916,8 +1972,6 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
       <c r="U15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1929,13 +1983,11 @@
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
       <c r="U16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1949,13 +2001,11 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
       <c r="U17" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1964,29 +2014,25 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-    </row>
-    <row r="19" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="15"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="62"/>
       <c r="J19" s="2"/>
       <c r="K19" s="11"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="69" t="s">
+      <c r="S19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="T19" s="33" t="s">
+      <c r="T19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="35"/>
-    </row>
-    <row r="20" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="40"/>
+    </row>
+    <row r="20" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H20" s="8"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1995,318 +2041,118 @@
       <c r="N20" s="16"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-    </row>
-    <row r="21" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S20" s="33"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="27"/>
+    </row>
+    <row r="21" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H21" s="8"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-    </row>
-    <row r="22" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H22" s="8"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
       <c r="Q22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-    </row>
-    <row r="23" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H23" s="8"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-    </row>
-    <row r="24" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H24" s="8"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="72"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="23"/>
       <c r="S24" s="4"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
+      <c r="AD24" s="4"/>
       <c r="AS24" s="26"/>
     </row>
-    <row r="25" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
       <c r="Q25" s="8"/>
-      <c r="S25" s="76" t="s">
+      <c r="S25" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="27" t="s">
+      <c r="T25" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="29"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="59"/>
       <c r="AD25" s="18"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="70"/>
-      <c r="AQ25" s="70"/>
-      <c r="AR25" s="70"/>
-      <c r="AS25" s="70"/>
-      <c r="AT25" s="70"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-    </row>
-    <row r="26" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE25" s="18"/>
+      <c r="AO25" s="30"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+    </row>
+    <row r="26" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
       <c r="R26" s="17"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="32"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
-      <c r="AR26" s="70"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="70"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-    </row>
-    <row r="27" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T26" s="60"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="62"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="29"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="26"/>
+    </row>
+    <row r="27" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H27" s="8"/>
-      <c r="U27" s="62" t="s">
+      <c r="U27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-    </row>
-    <row r="28" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H28" s="8"/>
-      <c r="U28" s="62" t="s">
+      <c r="U28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-    </row>
-    <row r="29" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H29" s="8"/>
-      <c r="U29" s="62" t="s">
+      <c r="U29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-    </row>
-    <row r="30" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H30" s="8"/>
       <c r="R30" s="19"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
-      <c r="U30" s="67"/>
+      <c r="U30" s="20"/>
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
@@ -2315,215 +2161,140 @@
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-    </row>
-    <row r="31" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+    </row>
+    <row r="31" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H31" s="8"/>
-      <c r="J31" s="76" t="s">
+      <c r="J31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="K31" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-    </row>
-    <row r="32" spans="4:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="40"/>
+    </row>
+    <row r="32" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H32" s="8"/>
       <c r="I32" s="17"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-    </row>
-    <row r="33" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K32" s="41"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="43"/>
+    </row>
+    <row r="33" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H33" s="8"/>
       <c r="L33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="62"/>
-    </row>
-    <row r="34" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H34" s="8"/>
       <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-    </row>
-    <row r="35" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H35" s="8"/>
       <c r="L35" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H38" s="8"/>
-      <c r="J38" s="77" t="s">
+      <c r="J38" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="35"/>
-    </row>
-    <row r="39" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="X38" s="40"/>
+    </row>
+    <row r="39" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I39" s="17"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="38"/>
-    </row>
-    <row r="40" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J39" s="17"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="43"/>
+    </row>
+    <row r="40" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="8:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K38:O39"/>
+  <mergeCells count="19">
+    <mergeCell ref="AP25:AT26"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
+    <mergeCell ref="T38:X39"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:T1"/>
@@ -2533,14 +2304,8 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
-    <mergeCell ref="AP25:AT26"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
     <mergeCell ref="K31:O32"/>
+    <mergeCell ref="K38:O39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2286C71C-D62B-45E7-A8CB-AFECE46BC452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53EE12-4243-411F-975D-057F817DDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -128,14 +128,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>⑨</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑩</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カテゴリー一覧　</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -178,22 +170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※赤色の線は管理者のみ遷移できるルート</t>
-    <rPh sb="1" eb="3">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>選択画面</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -269,25 +245,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの最寄り駅から勤務先までの料金の表示</t>
-    <rPh sb="4" eb="6">
-      <t>モヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>キンムサキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>リョウキン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤務地管理画面</t>
     <rPh sb="0" eb="3">
       <t>キンムチ</t>
@@ -331,35 +288,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザ給与の履歴</t>
-    <rPh sb="3" eb="5">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勤務時間履歴画面</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤務時間計算画面</t>
     <rPh sb="0" eb="4">
       <t>キンムジカン</t>
@@ -376,15 +304,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>④⑤</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>⑪⑫</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑬⑭</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -432,7 +352,86 @@
   </si>
   <si>
     <r>
-      <t>・給与履歴</t>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑪</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑫</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの勤務地と契約形態の追加、変更、削除</t>
+    <rPh sb="4" eb="7">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケイヤクケイタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
     </r>
     <r>
       <rPr>
@@ -445,37 +444,26 @@
       </rPr>
       <t>③</t>
     </r>
-    <rPh sb="1" eb="3">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>④</t>
-    </r>
     <rPh sb="1" eb="2">
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>・戻る</t>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑨⑩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・ユーザー管理</t>
     </r>
     <r>
       <rPr>
@@ -488,14 +476,14 @@
       </rPr>
       <t>⑤</t>
     </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・勤務地管理</t>
     </r>
     <r>
       <rPr>
@@ -508,14 +496,14 @@
       </rPr>
       <t>⑥</t>
     </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・ユーザー管理</t>
+    <rPh sb="1" eb="6">
+      <t>キンムチカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・ユーザ勤務地管理</t>
     </r>
     <r>
       <rPr>
@@ -528,14 +516,14 @@
       </rPr>
       <t>⑦</t>
     </r>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・勤務地管理</t>
+    <rPh sb="4" eb="9">
+      <t>キンムチカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・カレンダー</t>
     </r>
     <r>
       <rPr>
@@ -548,14 +536,11 @@
       </rPr>
       <t>⑧</t>
     </r>
-    <rPh sb="1" eb="6">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・ユーザ勤務地管理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
     </r>
     <r>
       <rPr>
@@ -568,14 +553,14 @@
       </rPr>
       <t>⑨</t>
     </r>
-    <rPh sb="4" eb="9">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・カレンダー</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
     </r>
     <r>
       <rPr>
@@ -588,154 +573,9 @@
       </rPr>
       <t>⑩</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑪</t>
-    </r>
     <rPh sb="1" eb="2">
       <t>モド</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑫</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑬</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑭</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>履歴選択画面</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>履歴の選択</t>
-    <rPh sb="0" eb="2">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑭</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑭</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑮</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑮</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1032,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,116 +984,125 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
-  <dimension ref="A1:AU43"/>
+  <dimension ref="A1:AU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1583,187 +1432,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="53" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
       <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="54">
+        <v>45127</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+    </row>
+    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+    </row>
+    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="55">
-        <v>45127</v>
-      </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-    </row>
-    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="22" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="39"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="34" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="31"/>
       <c r="J7" s="25"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="31"/>
       <c r="S7" s="25"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="43"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="42"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1796,7 +1642,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1811,7 +1657,7 @@
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1822,7 +1668,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1832,7 +1678,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="U9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -1844,7 +1690,7 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1855,7 +1701,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1865,7 +1711,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1876,9 +1722,6 @@
       <c r="AE10" s="6"/>
     </row>
     <row r="11" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1888,7 +1731,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1898,7 +1741,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="U11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -1912,7 +1755,7 @@
       <c r="H12" s="8"/>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1923,19 +1766,19 @@
     <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H13" s="8"/>
       <c r="L13" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="S13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="69"/>
+        <v>12</v>
+      </c>
+      <c r="T13" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="68"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1953,11 +1796,11 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="13"/>
       <c r="S14" s="24"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="72"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="71"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1973,7 +1816,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2002,7 +1845,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2022,15 +1865,15 @@
       <c r="K19" s="11"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
+        <v>14</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="39"/>
     </row>
     <row r="20" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H20" s="8"/>
@@ -2042,18 +1885,18 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="13"/>
       <c r="S20" s="33"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="43"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="42"/>
       <c r="Y20" s="27"/>
     </row>
     <row r="21" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H21" s="8"/>
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2067,7 +1910,7 @@
       <c r="H23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2087,23 +1930,23 @@
       <c r="H25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="T25" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="59"/>
+        <v>13</v>
+      </c>
+      <c r="T25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="58"/>
       <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
       <c r="AO25" s="30"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
     </row>
     <row r="26" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
@@ -2113,26 +1956,26 @@
       <c r="H26" s="8"/>
       <c r="R26" s="17"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="62"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="61"/>
       <c r="AD26" s="28"/>
       <c r="AE26" s="28"/>
       <c r="AF26" s="29"/>
       <c r="AO26" s="30"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
+      <c r="AP26" s="55"/>
+      <c r="AQ26" s="55"/>
+      <c r="AR26" s="55"/>
+      <c r="AS26" s="55"/>
+      <c r="AT26" s="55"/>
       <c r="AU26" s="26"/>
     </row>
     <row r="27" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H27" s="8"/>
       <c r="U27" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2144,7 +1987,7 @@
     <row r="29" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H29" s="8"/>
       <c r="U29" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2170,120 +2013,197 @@
       <c r="J31" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="40"/>
+      <c r="K31" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H32" s="8"/>
+      <c r="H32" s="73"/>
       <c r="I32" s="17"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
-    </row>
-    <row r="33" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H33" s="8"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="42"/>
+    </row>
+    <row r="33" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H33" s="73"/>
       <c r="L33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H34" s="8"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H34" s="73"/>
       <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H35" s="8"/>
-      <c r="L35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H38" s="8"/>
-      <c r="J38" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="T38" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="U38" s="39"/>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="40"/>
-    </row>
-    <row r="39" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="43"/>
-    </row>
-    <row r="40" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U40" s="1" t="s">
+    <row r="35" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="8:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L43" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+    </row>
+    <row r="36" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+    </row>
+    <row r="37" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+    </row>
+    <row r="38" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="76"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+    </row>
+    <row r="39" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+    </row>
+    <row r="40" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+    </row>
+    <row r="41" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+    </row>
+    <row r="42" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C53EE12-4243-411F-975D-057F817DDF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3A1E0-FCAA-460C-827D-DC6D8CC5AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -229,22 +229,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの勤務地の追加、変更、削除</t>
-    <rPh sb="4" eb="7">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤務地管理画面</t>
     <rPh sb="0" eb="3">
       <t>キンムチ</t>
@@ -411,25 +395,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの勤務地と契約形態の追加、変更、削除</t>
-    <rPh sb="4" eb="7">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ケイヤクケイタイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>・戻る</t>
     </r>
@@ -578,12 +543,47 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ユーザと勤務地の紐づけ、契約形態の追加、変更、削除</t>
+    <rPh sb="4" eb="7">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケイヤクケイタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの勤務地の追加、変更</t>
+    <rPh sb="4" eb="7">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,14 +661,6 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -872,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,51 +913,48 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -975,14 +964,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,6 +1018,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,71 +1087,8 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EA4A51-162C-4F0D-8D25-A7DB0E068027}">
-  <dimension ref="A1:AU42"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1432,184 +1418,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="52" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
       <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="52" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="54">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="73">
         <v>45127</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
       <c r="U2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="52" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
     </row>
     <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="22" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="21" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="22" t="s">
-        <v>39</v>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="39"/>
+      <c r="S6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="47"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="34" t="s">
-        <v>37</v>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="21" t="s">
-        <v>29</v>
+      <c r="I7" s="30"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="42"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="50"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1657,7 +1643,7 @@
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1668,7 +1654,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1690,7 +1676,7 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1701,7 +1687,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1731,7 +1717,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1741,7 +1727,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="U11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
@@ -1755,7 +1741,7 @@
       <c r="H12" s="8"/>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1766,19 +1752,19 @@
     <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H13" s="8"/>
       <c r="L13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="8"/>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="68"/>
+      <c r="T13" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1795,12 +1781,12 @@
       <c r="O14" s="2"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="71"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1816,7 +1802,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1845,7 +1831,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1861,359 +1847,204 @@
     <row r="19" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="15"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="11"/>
+      <c r="J19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
       <c r="Q19" s="8"/>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T19" s="37" t="s">
+      <c r="T19" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="39"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="47"/>
     </row>
     <row r="20" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="8"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="27"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="26"/>
     </row>
     <row r="21" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="8"/>
+      <c r="H21" s="74"/>
+      <c r="L21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H22" s="8"/>
+      <c r="H22" s="74"/>
+      <c r="L22" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="Q22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H23" s="8"/>
+      <c r="H23" s="74"/>
+      <c r="L23" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H24" s="8"/>
+      <c r="H24" s="74"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="23"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AS24" s="26"/>
+      <c r="AS24" s="25"/>
     </row>
     <row r="25" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="74"/>
       <c r="Q25" s="8"/>
-      <c r="S25" s="36" t="s">
+      <c r="S25" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="T25" s="56" t="s">
+      <c r="T25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="58"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="55"/>
-      <c r="AQ25" s="55"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="55"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="41"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="38"/>
+      <c r="AQ25" s="38"/>
+      <c r="AR25" s="38"/>
+      <c r="AS25" s="38"/>
+      <c r="AT25" s="38"/>
     </row>
     <row r="26" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="8"/>
-      <c r="R26" s="17"/>
+      <c r="H26" s="74"/>
+      <c r="R26" s="16"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="61"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="29"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="55"/>
-      <c r="AQ26" s="55"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="55"/>
-      <c r="AU26" s="26"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="44"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="28"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="38"/>
+      <c r="AQ26" s="38"/>
+      <c r="AR26" s="38"/>
+      <c r="AS26" s="38"/>
+      <c r="AT26" s="38"/>
+      <c r="AU26" s="25"/>
     </row>
     <row r="27" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H27" s="8"/>
+      <c r="H27" s="74"/>
       <c r="U27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="8"/>
+      <c r="H28" s="74"/>
       <c r="U28" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="8"/>
+      <c r="H29" s="74"/>
       <c r="U29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H30" s="8"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
+      <c r="H30" s="74"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
     </row>
     <row r="31" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="8"/>
-      <c r="J31" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="39"/>
-    </row>
-    <row r="32" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H32" s="73"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="42"/>
-    </row>
-    <row r="33" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H33" s="73"/>
-      <c r="L33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H34" s="73"/>
-      <c r="L34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-    </row>
-    <row r="36" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-    </row>
-    <row r="37" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-    </row>
-    <row r="38" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-    </row>
-    <row r="39" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-    </row>
-    <row r="40" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-    </row>
-    <row r="41" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="73"/>
-      <c r="V41" s="73"/>
-      <c r="W41" s="73"/>
-      <c r="X41" s="73"/>
-    </row>
-    <row r="42" spans="7:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="38" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J38" s="36"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="37"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="61"/>
+    </row>
+    <row r="39" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AP25:AT26"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
     <mergeCell ref="T38:X39"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
@@ -2224,8 +2055,15 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K31:O32"/>
+    <mergeCell ref="K19:O20"/>
     <mergeCell ref="K38:O39"/>
+    <mergeCell ref="AP25:AT26"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3A1E0-FCAA-460C-827D-DC6D8CC5AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F346E2-E065-4DBA-BDE4-9ECF7C905734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -79,10 +79,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
@@ -210,25 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの最寄り駅の追加、変更、削除</t>
-    <rPh sb="4" eb="6">
-      <t>モヨ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤務地管理画面</t>
     <rPh sb="0" eb="3">
       <t>キンムチ</t>
@@ -262,16 +239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの給与計算</t>
-    <rPh sb="4" eb="6">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤務時間計算画面</t>
     <rPh sb="0" eb="4">
       <t>キンムジカン</t>
@@ -293,7 +260,281 @@
   </si>
   <si>
     <r>
-      <t>・給与計算</t>
+      <t>・管理画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②</t>
+    </r>
+    <rPh sb="1" eb="5">
+      <t>カンリガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑪</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑫</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>③</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑨⑩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・ユーザー管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑤</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・勤務地管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑥</t>
+    </r>
+    <rPh sb="1" eb="6">
+      <t>キンムチカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・ユーザ勤務地管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑦</t>
+    </r>
+    <rPh sb="4" eb="9">
+      <t>キンムチカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・カレンダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑧</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑨</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑩</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザと勤務地の紐づけ、契約形態の追加、変更、削除</t>
+    <rPh sb="4" eb="7">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ケイヤクケイタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの勤務地の追加、変更</t>
+    <rPh sb="4" eb="7">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月選択</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・勤務時間計算</t>
     </r>
     <r>
       <rPr>
@@ -306,275 +547,64 @@
       </rPr>
       <t>①</t>
     </r>
-    <rPh sb="1" eb="3">
-      <t>キュウヨ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <rPh sb="1" eb="5">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>・管理画面</t>
+    <t>ユーザの勤務時間計算</t>
+    <rPh sb="4" eb="6">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務時間計算の年月の選択</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンガツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑭</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>戻る</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color theme="4"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>②</t>
-    </r>
-    <rPh sb="1" eb="5">
-      <t>カンリガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>④</t>
-    </r>
-    <rPh sb="1" eb="2">
+      <t>⑬</t>
+    </r>
+    <rPh sb="0" eb="1">
       <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑪</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑫</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>③</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑤</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑨⑩</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・ユーザー管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑤</t>
-    </r>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・勤務地管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑥</t>
-    </r>
-    <rPh sb="1" eb="6">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・ユーザ勤務地管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑦</t>
-    </r>
-    <rPh sb="4" eb="9">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・カレンダー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑧</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑨</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑩</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザと勤務地の紐づけ、契約形態の追加、変更、削除</t>
-    <rPh sb="4" eb="7">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ケイヤクケイタイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザの勤務地の追加、変更</t>
-    <rPh sb="4" eb="7">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -583,7 +613,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +758,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -864,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,6 +1025,63 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,24 +1103,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1048,46 +1133,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1407,7 +1459,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1418,184 +1470,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="71" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
       <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="50">
+        <v>45127</v>
+      </c>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="73">
-        <v>45127</v>
-      </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="1" t="s">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="50">
+        <v>45131</v>
+      </c>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+    </row>
+    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-    </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-    </row>
-    <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
       <c r="J6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="47"/>
+        <v>32</v>
+      </c>
+      <c r="T6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="30"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
       <c r="P7" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="30"/>
       <c r="S7" s="24"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1606,7 +1658,7 @@
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1617,7 +1669,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -1628,7 +1680,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1643,7 +1695,7 @@
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1654,7 +1706,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1664,7 +1716,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="U9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -1676,7 +1728,7 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1687,7 +1739,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1697,7 +1749,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1717,7 +1769,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1726,9 +1778,6 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="U11" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -1741,7 +1790,7 @@
       <c r="H12" s="8"/>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1752,19 +1801,19 @@
     <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H13" s="8"/>
       <c r="L13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="S13" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="T13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
+        <v>11</v>
+      </c>
+      <c r="T13" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="70"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1782,11 +1831,11 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="13"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1802,7 +1851,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1813,7 +1862,7 @@
       <c r="I16" s="11"/>
       <c r="Q16" s="8"/>
       <c r="U16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1831,7 +1880,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1847,79 +1896,53 @@
     <row r="19" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" s="15"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="T19" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="53"/>
     </row>
     <row r="20" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="74"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
+      <c r="I20" s="74"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="13"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="50"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56"/>
       <c r="Y20" s="26"/>
     </row>
     <row r="21" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="74"/>
-      <c r="L21" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="I21" s="74"/>
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H22" s="74"/>
-      <c r="L22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I22" s="74"/>
       <c r="Q22" s="8"/>
       <c r="U22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H23" s="74"/>
-      <c r="L23" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="I23" s="74"/>
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="22"/>
@@ -1932,71 +1955,71 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="T25" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="60"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
       <c r="AO25" s="29"/>
-      <c r="AP25" s="38"/>
-      <c r="AQ25" s="38"/>
-      <c r="AR25" s="38"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="38"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
     </row>
     <row r="26" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
       <c r="R26" s="16"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="44"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="63"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="28"/>
       <c r="AO26" s="29"/>
-      <c r="AP26" s="38"/>
-      <c r="AQ26" s="38"/>
-      <c r="AR26" s="38"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="38"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
       <c r="AU26" s="25"/>
     </row>
     <row r="27" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
       <c r="U27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
       <c r="U28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
       <c r="U29" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
@@ -2014,37 +2037,106 @@
       <c r="AF30" s="19"/>
     </row>
     <row r="31" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="53"/>
+    </row>
+    <row r="32" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="56"/>
+    </row>
+    <row r="33" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="38" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="36"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
       <c r="P38" s="37"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-      <c r="W38" s="61"/>
-      <c r="X38" s="61"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
     </row>
     <row r="39" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="AP25:AT26"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
     <mergeCell ref="T38:X39"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
@@ -2055,15 +2147,9 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K19:O20"/>
+    <mergeCell ref="T31:X32"/>
     <mergeCell ref="K38:O39"/>
-    <mergeCell ref="AP25:AT26"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
+    <mergeCell ref="K31:O32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F346E2-E065-4DBA-BDE4-9ECF7C905734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA09FDC-957D-4282-B104-AF7017E03CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
+    <workbookView xWindow="960" yWindow="1050" windowWidth="15315" windowHeight="8910" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -176,16 +176,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザー勤務先画面</t>
-    <rPh sb="4" eb="7">
-      <t>キンムサキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カレンダー画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -193,19 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザの追加、変更、削除</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>勤務地管理画面</t>
     <rPh sb="0" eb="3">
       <t>キンムチ</t>
@@ -214,16 +191,6 @@
       <t>カンリ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザー管理画面</t>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -372,7 +339,256 @@
   </si>
   <si>
     <r>
-      <t>・ユーザー管理</t>
+      <t>・勤務地管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑥</t>
+    </r>
+    <rPh sb="1" eb="6">
+      <t>キンムチカンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・カレンダー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑧</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑨</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑩</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月選択</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・勤務時間計算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <rPh sb="1" eb="5">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務時間計算の年月の選択</t>
+    <rPh sb="0" eb="4">
+      <t>キンムジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ネンガツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑭</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>戻る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⑬</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員の勤務時間計算</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員と勤務地の紐づけ、契約形態の追加、変更、削除</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ケイヤクケイタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員勤務先画面</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンムサキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員の勤務地の追加、変更</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員の追加、変更、削除</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・社員管理</t>
     </r>
     <r>
       <rPr>
@@ -385,34 +601,17 @@
       </rPr>
       <t>⑤</t>
     </r>
-    <rPh sb="5" eb="7">
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
-      <t>・勤務地管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑥</t>
-    </r>
-    <rPh sb="1" eb="6">
-      <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・ユーザ勤務地管理</t>
+      <t>・社員勤務地管理</t>
     </r>
     <r>
       <rPr>
@@ -425,186 +624,11 @@
       </rPr>
       <t>⑦</t>
     </r>
-    <rPh sb="4" eb="9">
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="8">
       <t>キンムチカンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・カレンダー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑧</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑨</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑩</t>
-    </r>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザと勤務地の紐づけ、契約形態の追加、変更、削除</t>
-    <rPh sb="4" eb="7">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒモ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ケイヤクケイタイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザの勤務地の追加、変更</t>
-    <rPh sb="4" eb="7">
-      <t>キンムチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年月選択</t>
-    <rPh sb="0" eb="2">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・勤務時間計算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>①</t>
-    </r>
-    <rPh sb="1" eb="5">
-      <t>キンムジカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザの勤務時間計算</t>
-    <rPh sb="4" eb="6">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勤務時間計算の年月の選択</t>
-    <rPh sb="0" eb="4">
-      <t>キンムジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ネンガツ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>⑭</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>戻る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>⑬</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1025,6 +1049,84 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,84 +1165,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,7 +1483,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1470,125 +1494,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
       <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="48" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="50">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="76">
         <v>45127</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
       <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="48" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="50">
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="76">
         <v>45131</v>
       </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
     </row>
     <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
@@ -1597,57 +1621,57 @@
       <c r="J6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
       <c r="P6" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="53"/>
+        <v>29</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="50"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="30"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="30"/>
       <c r="S7" s="24"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1680,7 +1704,7 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -1695,7 +1719,7 @@
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1706,7 +1730,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1728,7 +1752,7 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1739,7 +1763,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -1749,7 +1773,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="U10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -1769,7 +1793,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1790,7 +1814,7 @@
       <c r="H12" s="8"/>
       <c r="K12" s="6"/>
       <c r="L12" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -1801,19 +1825,19 @@
     <row r="13" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H13" s="8"/>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="8"/>
       <c r="S13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="70"/>
+      <c r="T13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="60"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1831,11 +1855,11 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="13"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="73"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="63"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1851,7 +1875,7 @@
       <c r="O15" s="2"/>
       <c r="Q15" s="8"/>
       <c r="U15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1880,7 +1904,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="8"/>
       <c r="U17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1900,49 +1924,49 @@
       <c r="S19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="52"/>
-      <c r="X19" s="53"/>
+      <c r="T19" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="50"/>
     </row>
     <row r="20" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="74"/>
+      <c r="I20" s="38"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="13"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="53"/>
       <c r="Y20" s="26"/>
     </row>
     <row r="21" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="74"/>
+      <c r="I21" s="38"/>
       <c r="Q21" s="8"/>
       <c r="U21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="74"/>
+      <c r="I22" s="38"/>
       <c r="Q22" s="8"/>
       <c r="U22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I23" s="74"/>
+      <c r="I23" s="38"/>
       <c r="Q23" s="8"/>
       <c r="U23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I24" s="74"/>
+      <c r="I24" s="38"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="31"/>
       <c r="R24" s="22"/>
@@ -1955,71 +1979,71 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="38"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T25" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="60"/>
+      <c r="T25" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="44"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
       <c r="AO25" s="29"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
+      <c r="AP25" s="41"/>
+      <c r="AQ25" s="41"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
     </row>
     <row r="26" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="38"/>
       <c r="R26" s="16"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="63"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="47"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="28"/>
       <c r="AO26" s="29"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
       <c r="AU26" s="25"/>
     </row>
     <row r="27" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I27" s="74"/>
+      <c r="I27" s="38"/>
       <c r="U27" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I28" s="74"/>
+      <c r="I28" s="38"/>
       <c r="U28" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I29" s="74"/>
+      <c r="I29" s="38"/>
       <c r="U29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I30" s="74"/>
+      <c r="I30" s="38"/>
       <c r="R30" s="18"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
@@ -2037,52 +2061,52 @@
       <c r="AF30" s="19"/>
     </row>
     <row r="31" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I31" s="75"/>
+      <c r="I31" s="39"/>
       <c r="J31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="T31" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="53"/>
+      <c r="K31" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="50"/>
     </row>
     <row r="32" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="68"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="14"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="56"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="53"/>
     </row>
     <row r="33" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L33" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2095,48 +2119,41 @@
     </row>
     <row r="35" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="36"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
       <c r="P38" s="37"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
     </row>
     <row r="39" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AP25:AT26"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
     <mergeCell ref="T38:X39"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
@@ -2150,6 +2167,13 @@
     <mergeCell ref="T31:X32"/>
     <mergeCell ref="K38:O39"/>
     <mergeCell ref="K31:O32"/>
+    <mergeCell ref="AP25:AT26"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面遷移図.xlsx
+++ b/画面遷移図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\commpany_money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA09FDC-957D-4282-B104-AF7017E03CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A0F848-C433-4A91-8B22-54D736E905C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1050" windowWidth="15315" windowHeight="8910" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{8B2A9403-48F3-4A3A-8063-C61B6750FA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1058,12 +1058,84 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,39 +1151,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,45 +1164,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="K6" sqref="K6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1494,125 +1494,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="74" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
       <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="74" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="76">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="53">
         <v>45127</v>
       </c>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
       <c r="U2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
     </row>
     <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="76">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="53">
         <v>45131</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
     </row>
     <row r="6" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
@@ -1621,13 +1621,13 @@
       <c r="J6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="21" t="s">
         <v>30</v>
       </c>
@@ -1636,42 +1636,42 @@
       <c r="S6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="48" t="s">
+      <c r="T6" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="56"/>
     </row>
     <row r="7" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
       <c r="G7" s="33" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="30"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="30"/>
       <c r="S7" s="24"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="53"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="59"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
@@ -1831,13 +1831,13 @@
       <c r="S13" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="T13" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="60"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="73"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
@@ -1855,11 +1855,11 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="13"/>
       <c r="S14" s="23"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="63"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="76"/>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E15" s="11"/>
@@ -1924,24 +1924,24 @@
       <c r="S19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T19" s="48" t="s">
+      <c r="T19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="50"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56"/>
     </row>
     <row r="20" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I20" s="38"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="13"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="53"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="59"/>
       <c r="Y20" s="26"/>
     </row>
     <row r="21" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1984,21 +1984,21 @@
       <c r="S25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T25" s="42" t="s">
+      <c r="T25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="44"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="68"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
       <c r="AO25" s="29"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
     </row>
     <row r="26" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="2"/>
@@ -2008,20 +2008,20 @@
       <c r="I26" s="38"/>
       <c r="R26" s="16"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="47"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="71"/>
       <c r="AD26" s="27"/>
       <c r="AE26" s="27"/>
       <c r="AF26" s="28"/>
       <c r="AO26" s="29"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
       <c r="AU26" s="25"/>
     </row>
     <row r="27" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2065,41 +2065,41 @@
       <c r="J31" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="55"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="62"/>
       <c r="P31" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="T31" s="48" t="s">
+      <c r="T31" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="50"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="56"/>
     </row>
     <row r="32" spans="4:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="58"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="65"/>
       <c r="P32" s="16"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
       <c r="S32" s="14"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="53"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="59"/>
     </row>
     <row r="33" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L33" s="1" t="s">
@@ -2127,33 +2127,40 @@
     </row>
     <row r="38" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J38" s="36"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="64"/>
-      <c r="O38" s="64"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
       <c r="P38" s="37"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
     </row>
     <row r="39" spans="10:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP25:AT26"/>
+    <mergeCell ref="T25:X26"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T13:X14"/>
+    <mergeCell ref="T19:X20"/>
     <mergeCell ref="T38:X39"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
@@ -2167,13 +2174,6 @@
     <mergeCell ref="T31:X32"/>
     <mergeCell ref="K38:O39"/>
     <mergeCell ref="K31:O32"/>
-    <mergeCell ref="AP25:AT26"/>
-    <mergeCell ref="T25:X26"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T13:X14"/>
-    <mergeCell ref="T19:X20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
